--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/96.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/96.xlsx
@@ -479,13 +479,13 @@
         <v>-0.06438034334747744</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.92302705393609</v>
+        <v>-1.923433937878946</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04213267096957639</v>
+        <v>0.0410292835655446</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008533658806291904</v>
+        <v>0.0076081355629671</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.07485068614132299</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.790052344549486</v>
+        <v>-1.791258043196403</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.007991967948244017</v>
+        <v>-0.009174056308340834</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01060034591255971</v>
+        <v>0.009684266783962708</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.09636705779185833</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.762055266438911</v>
+        <v>-1.763722152688368</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.05103981689669652</v>
+        <v>-0.05198580238859824</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006649557918094981</v>
+        <v>0.00573033075125538</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1254791460469815</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.787253738551814</v>
+        <v>-1.789163023745951</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08632932559625794</v>
+        <v>-0.0871367974054852</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0298049532115494</v>
+        <v>0.02871100992224542</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1554079112559227</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.752883457019092</v>
+        <v>-1.754573953555369</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1446372899257206</v>
+        <v>-0.14508431135617</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03489533104983582</v>
+        <v>0.03351963833781902</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1752049397246448</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.611526308802002</v>
+        <v>-1.613524526076493</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1980012601951778</v>
+        <v>-0.1976644201032195</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03121999640159872</v>
+        <v>0.03008827665338352</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1775116729844143</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.47044618795026</v>
+        <v>-1.472181544031494</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2906637658661493</v>
+        <v>-0.2895430642517832</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05800507978877252</v>
+        <v>0.05665771942093913</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1607792301149365</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.249749818914448</v>
+        <v>-1.251322264016628</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.37282126792156</v>
+        <v>-0.3705672725398574</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08240552420717578</v>
+        <v>0.08094168642436614</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1274183302927281</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9490617981341354</v>
+        <v>-0.9495843724824071</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4142022306205551</v>
+        <v>-0.4111911320415069</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1233882600684818</v>
+        <v>0.1217229478381457</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.08190195973182895</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7453050228817613</v>
+        <v>-0.7448501313557054</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5147694603186986</v>
+        <v>-0.5107934880182932</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1226531931388344</v>
+        <v>0.1209516784687083</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.0262510915679504</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5172989090466289</v>
+        <v>-0.5157595183459968</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6355234852475236</v>
+        <v>-0.6307353190805268</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1355585759143787</v>
+        <v>0.1338649313398592</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.04159647604115186</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2686322202253036</v>
+        <v>-0.266378224843601</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7708765375264123</v>
+        <v>-0.7661371659521758</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1993094983652992</v>
+        <v>0.1976426121158417</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1262626080231968</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04222373579829138</v>
+        <v>-0.03934328080631112</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8853573092472933</v>
+        <v>-0.8804589617418055</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2630352365102788</v>
+        <v>0.2612927973429989</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2327612786137208</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3075296090312066</v>
+        <v>0.3105375595720123</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.025872357234488</v>
+        <v>-1.021322654964368</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2990204616614551</v>
+        <v>0.2976195846434975</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3583972819130012</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5740078982291705</v>
+        <v>0.5771968609689256</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.173150965385911</v>
+        <v>-1.169408734925019</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3247840066389048</v>
+        <v>0.3238994078927338</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4938064723105237</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8248719177438315</v>
+        <v>0.8281380074205305</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.307495858417607</v>
+        <v>-1.304387170653038</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3556158931869426</v>
+        <v>0.35506813453273</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6318093659258457</v>
       </c>
       <c r="E18" t="n">
-        <v>1.065435556128701</v>
+        <v>1.068922008482382</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.507020096252803</v>
+        <v>-1.504183713796219</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4059797830112008</v>
+        <v>0.4056083144985738</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7690112639574299</v>
       </c>
       <c r="E19" t="n">
-        <v>1.3347392096494</v>
+        <v>1.33768105138711</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.712017198572762</v>
+        <v>-1.709479092739665</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4418422346709157</v>
+        <v>0.4416218719939335</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.905113435449467</v>
       </c>
       <c r="E20" t="n">
-        <v>1.628884032942465</v>
+        <v>1.631603937984073</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.915143579167055</v>
+        <v>-1.913166611150702</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5069908861015511</v>
+        <v>0.5067280249082939</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.038386086441812</v>
       </c>
       <c r="E21" t="n">
-        <v>1.827915602792695</v>
+        <v>1.829914607076747</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.143809994023573</v>
+        <v>-2.14203922251211</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5810925582941449</v>
+        <v>0.5807572922213079</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.159131062300297</v>
       </c>
       <c r="E22" t="n">
-        <v>1.961357795858325</v>
+        <v>1.963079772777027</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.313018623582519</v>
+        <v>-2.311496547092221</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6431372440175754</v>
+        <v>0.642820866174194</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.256113612528509</v>
       </c>
       <c r="E23" t="n">
-        <v>2.156934393737299</v>
+        <v>2.157847324827653</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.465403349763442</v>
+        <v>-2.463967057315255</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7004819086448021</v>
+        <v>0.7001702528587845</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.322590235224717</v>
       </c>
       <c r="E24" t="n">
-        <v>2.261161217892467</v>
+        <v>2.261230474733804</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.70551839269874</v>
+        <v>-2.703819239057296</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7481180233318461</v>
+        <v>0.7479621954388374</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.357677895318245</v>
       </c>
       <c r="E25" t="n">
-        <v>2.40315190880588</v>
+        <v>2.402261013983224</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.865255362195259</v>
+        <v>-2.863542042381722</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7893573243099241</v>
+        <v>0.7888221578086818</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.364305152298666</v>
       </c>
       <c r="E26" t="n">
-        <v>2.550206219232518</v>
+        <v>2.548588127575821</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.036302446087883</v>
+        <v>-3.034443529505626</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8201388422460804</v>
+        <v>0.819754781580483</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.343819357459592</v>
       </c>
       <c r="E27" t="n">
-        <v>2.600735381064513</v>
+        <v>2.598578974868331</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.15474817197532</v>
+        <v>-3.152095949755929</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8616079500158683</v>
+        <v>0.8611058379161733</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.29851063799867</v>
       </c>
       <c r="E28" t="n">
-        <v>2.615540604919467</v>
+        <v>2.613307071786342</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.241102009008118</v>
+        <v>-3.237988599186186</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8862429232833453</v>
+        <v>0.8853787867857512</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.232616212878186</v>
       </c>
       <c r="E29" t="n">
-        <v>2.623171449619533</v>
+        <v>2.620664037159301</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.330455926486116</v>
+        <v>-3.32635796770381</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8862507933789519</v>
+        <v>0.8852386990839555</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.153478462300775</v>
       </c>
       <c r="E30" t="n">
-        <v>2.619614166405393</v>
+        <v>2.61677778394881</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.363518198129037</v>
+        <v>-3.358550593782212</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8968108876637582</v>
+        <v>0.8959687874338623</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.068762630510864</v>
       </c>
       <c r="E31" t="n">
-        <v>2.609546740105554</v>
+        <v>2.606655266979725</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.44014774503044</v>
+        <v>-3.434330170358112</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8609594541378924</v>
+        <v>0.8600055985503842</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9828880154264481</v>
       </c>
       <c r="E32" t="n">
-        <v>2.573245137110996</v>
+        <v>2.570334775755712</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.481342973473121</v>
+        <v>-3.474452704769627</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8572494910689866</v>
+        <v>0.8562011943342004</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8988078894431865</v>
       </c>
       <c r="E33" t="n">
-        <v>2.505976281923969</v>
+        <v>2.503087956836382</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.517848411943887</v>
+        <v>-3.510164837603258</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8689271389299165</v>
+        <v>0.867390896267527</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.817620432615578</v>
       </c>
       <c r="E34" t="n">
-        <v>2.448357737969636</v>
+        <v>2.445456820729079</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.537452033090127</v>
+        <v>-3.529641750210233</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8632842803800534</v>
+        <v>0.8615638774804718</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7406424934845053</v>
       </c>
       <c r="E35" t="n">
-        <v>2.389865613402981</v>
+        <v>2.387196076973255</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.507822697150762</v>
+        <v>-3.499648028844287</v>
       </c>
       <c r="G35" t="n">
-        <v>0.815028002159217</v>
+        <v>0.8131360311754136</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6694895340204542</v>
       </c>
       <c r="E36" t="n">
-        <v>2.304136661961339</v>
+        <v>2.301338055963666</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.488962013029777</v>
+        <v>-3.480696838623827</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8064354317760366</v>
+        <v>0.8044002250521948</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6046391034850868</v>
       </c>
       <c r="E37" t="n">
-        <v>2.155994704321882</v>
+        <v>2.153539234492653</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.434426972534072</v>
+        <v>-3.426173603271532</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7610674786427868</v>
+        <v>0.7591235650279805</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5470681976403059</v>
       </c>
       <c r="E38" t="n">
-        <v>2.071362844207787</v>
+        <v>2.068823951365129</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.392762686393243</v>
+        <v>-3.384544732560932</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7534932986310879</v>
+        <v>0.7517587295594146</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4963557006178586</v>
       </c>
       <c r="E39" t="n">
-        <v>1.988473423260972</v>
+        <v>1.986137578884961</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.284083749153476</v>
+        <v>-3.276033428357584</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6997610078872464</v>
+        <v>0.6980956956569102</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4515038172396872</v>
       </c>
       <c r="E40" t="n">
-        <v>1.864022027416211</v>
+        <v>1.861579149739953</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.202908435029757</v>
+        <v>-3.195132780570532</v>
       </c>
       <c r="G40" t="n">
-        <v>0.666330415769941</v>
+        <v>0.6646525113866345</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4119895917282931</v>
       </c>
       <c r="E41" t="n">
-        <v>1.756859657599818</v>
+        <v>1.754846487143674</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.14559918583276</v>
+        <v>-3.137845567641233</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6211497709121261</v>
+        <v>0.6196859331293164</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.376134135283616</v>
       </c>
       <c r="E42" t="n">
-        <v>1.624818341552146</v>
+        <v>1.623373391998792</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.085667620779676</v>
+        <v>-3.078164271628435</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5751396179773857</v>
+        <v>0.5737938316286736</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3423568575621223</v>
       </c>
       <c r="E43" t="n">
-        <v>1.503681829976845</v>
+        <v>1.502471409272565</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.983291056101597</v>
+        <v>-2.976189868835849</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5212892757994465</v>
+        <v>0.5200646889230747</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3088986603123076</v>
       </c>
       <c r="E44" t="n">
-        <v>1.314769629057458</v>
+        <v>1.314044006242538</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.930284388172675</v>
+        <v>-2.923437404995017</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4763384377333415</v>
+        <v>0.4752869929603127</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2737802800759391</v>
       </c>
       <c r="E45" t="n">
-        <v>1.13466721315999</v>
+        <v>1.134253246131088</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.818447181566019</v>
+        <v>-2.811924446327348</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4309358561794232</v>
+        <v>0.4300937559495273</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2366764706441774</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9650682268589624</v>
+        <v>0.9654396953715895</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.662356427363993</v>
+        <v>-2.656372793674369</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3742302433154446</v>
+        <v>0.373358236722244</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1978227770876952</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8915945882957677</v>
+        <v>0.8921990116383471</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.618228014288768</v>
+        <v>-2.612304193325753</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3388620336598182</v>
+        <v>0.3380640059653187</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1582128053548361</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7493520543229458</v>
+        <v>0.7504916441667675</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.542751436393718</v>
+        <v>-2.537099920738688</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3475018246166376</v>
+        <v>0.3467998120885375</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1197380385337444</v>
       </c>
       <c r="E49" t="n">
-        <v>0.615946063697106</v>
+        <v>0.6176145239656847</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.485403623728248</v>
+        <v>-2.479744237977612</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3039691777788245</v>
+        <v>0.3033521622832746</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.08384224440107696</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4857101475815658</v>
+        <v>0.4878397954526856</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.426115832495776</v>
+        <v>-2.420579220236601</v>
       </c>
       <c r="G50" t="n">
-        <v>0.259005747559749</v>
+        <v>0.2586500192383351</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.05183993997387821</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3734841582519481</v>
+        <v>0.3758530570295056</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.398023526228362</v>
+        <v>-2.392501080141279</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2422487399943819</v>
+        <v>0.2418819935391189</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.02376850186864562</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2183976282493126</v>
+        <v>0.2210293882201274</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.401437573702463</v>
+        <v>-2.395834852640193</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2273270387244514</v>
+        <v>0.2269492741353392</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.001214643767411428</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1637130559370841</v>
+        <v>0.1669209069062949</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.3150050357136</v>
+        <v>-2.309803689527262</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1906335049686898</v>
+        <v>0.1903013869340953</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.02382742493408927</v>
       </c>
       <c r="E54" t="n">
-        <v>0.06110904549597748</v>
+        <v>0.06437670919179771</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.273820038395207</v>
+        <v>-2.268750909815058</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1677031944095814</v>
+        <v>0.1673868165661999</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.04545510650314941</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.0262521637744533</v>
+        <v>-0.0228333942429882</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.234414469693444</v>
+        <v>-2.229634173622054</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1511555313873472</v>
+        <v>0.1508832260793622</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.06726301621271147</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.06534450267107718</v>
+        <v>-0.06176203515099681</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.20998805395954</v>
+        <v>-2.20547534113877</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1226500451005918</v>
+        <v>0.122379313811728</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.09005967653273389</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1351254923757006</v>
+        <v>-0.1313494205037002</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.185569508321241</v>
+        <v>-2.181334609875382</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1211625970309626</v>
+        <v>0.1207675182315161</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.114985854197509</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.212266595491526</v>
+        <v>-0.2084747834283126</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.169449978500001</v>
+        <v>-2.165375630004514</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1072750263237267</v>
+        <v>0.106857911256582</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1426691876080712</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2874401747057255</v>
+        <v>-0.2837790062295801</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.164050305904379</v>
+        <v>-2.160110536043763</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08681277774681771</v>
+        <v>0.08640038473703693</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1737805677273749</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3278924661231532</v>
+        <v>-0.3241730589395197</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.174903167745747</v>
+        <v>-2.170869743747414</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06032675799269104</v>
+        <v>0.06004815660822081</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.208764664935696</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3551450331893533</v>
+        <v>-0.3515751578222434</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.125483689394269</v>
+        <v>-2.122002746107513</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02302093079874343</v>
+        <v>0.02291861955585889</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2474315282681019</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.3965779385193513</v>
+        <v>-0.3928412171253835</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.108536225515225</v>
+        <v>-2.105291385096664</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05824118265696762</v>
+        <v>0.05803970820944113</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.290520090344306</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.4073426552899267</v>
+        <v>-0.4037003750432369</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.134774337257747</v>
+        <v>-2.131736480353636</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02734790936319903</v>
+        <v>0.02723930204382928</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3379913010184736</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.3940185834281164</v>
+        <v>-0.3901701066765362</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.106901606657754</v>
+        <v>-2.104328085394427</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01042562979009533</v>
+        <v>0.01037053912084981</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3892325024048318</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4481664152199814</v>
+        <v>-0.4444816364570164</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.116994217263534</v>
+        <v>-2.114421483009768</v>
       </c>
       <c r="G65" t="n">
-        <v>0.009989626493495041</v>
+        <v>0.009899907403580901</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4432929412628308</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.46761184744453</v>
+        <v>-0.4639113284903522</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.10603747016016</v>
+        <v>-2.103649683153147</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.02309940347448802</v>
+        <v>-0.02325365734837549</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4980512414361121</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.4906240069979461</v>
+        <v>-0.4871957933517532</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.137184947542019</v>
+        <v>-2.134673600033984</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.02320643677473647</v>
+        <v>-0.02337957887807954</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5516363500555288</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.4362117399937026</v>
+        <v>-0.4326528827604418</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.169775013448549</v>
+        <v>-2.167370699240763</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.04503965600629831</v>
+        <v>-0.04518289174633667</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6020499784476563</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.4006090014890024</v>
+        <v>-0.3972815250665727</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.195124591397097</v>
+        <v>-2.192682500730399</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07428965333742898</v>
+        <v>-0.07439983467592004</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6468886010766884</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3226997770419822</v>
+        <v>-0.3195312765508039</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.204258624358005</v>
+        <v>-2.201800006490533</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.08235492731497371</v>
+        <v>-0.08247927482555646</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6846706970016033</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.2687329574490668</v>
+        <v>-0.2655455687284329</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.229706578501634</v>
+        <v>-2.227228285395146</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.08721707238067153</v>
+        <v>-0.08722651649539934</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7139311796589138</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2083504359177299</v>
+        <v>-0.2050843462410309</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.281818416560096</v>
+        <v>-2.279233877162921</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.07155715614285099</v>
+        <v>-0.07138716207775052</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7338157148461768</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.08077303809806652</v>
+        <v>-0.07749750430663979</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.291501782194338</v>
+        <v>-2.288925112892769</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.08711318711866568</v>
+        <v>-0.08700930185665985</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7439900771580454</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.007392266663028455</v>
+        <v>-0.004151361292270338</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.335691582015294</v>
+        <v>-2.333103894579876</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07506249672598762</v>
+        <v>-0.07485787424021853</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7444657056900188</v>
       </c>
       <c r="E75" t="n">
-        <v>0.08909353145358241</v>
+        <v>0.09246035835404458</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.366153574069827</v>
+        <v>-2.363492694745268</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.07990103150486594</v>
+        <v>-0.07965705854106434</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7359775314532588</v>
       </c>
       <c r="E76" t="n">
-        <v>0.225853756826914</v>
+        <v>0.2292803964539856</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.390455642293149</v>
+        <v>-2.38792776758434</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.08998262397679685</v>
+        <v>-0.08956550890965216</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7189618038675627</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3699064127892316</v>
+        <v>0.3733629587796079</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.330755458050895</v>
+        <v>-2.328575441567894</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.09695238064591628</v>
+        <v>-0.09624564606045229</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6940872498405042</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5537990667307909</v>
+        <v>0.5573610720022945</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.326308854033221</v>
+        <v>-2.324361005370611</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.07298636550499202</v>
+        <v>-0.07243545881253678</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6621130491289275</v>
       </c>
       <c r="E79" t="n">
-        <v>0.67425560204569</v>
+        <v>0.6778349215275278</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.25949567738181</v>
+        <v>-2.257727266899029</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.06027301306224636</v>
+        <v>-0.05938841431607537</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6237862325335085</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8292492649201687</v>
+        <v>0.8328049741151869</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.239840113604568</v>
+        <v>-2.238272390559752</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.03985011496336994</v>
+        <v>-0.03899699659962497</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5804845129301226</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9525044062327404</v>
+        <v>0.9562002031295544</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.200991747671746</v>
+        <v>-2.199565686347847</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.01213163823726483</v>
+        <v>-0.01117306059239271</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5333046360715287</v>
       </c>
       <c r="E82" t="n">
-        <v>1.10417059268479</v>
+        <v>1.107768800396083</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.145489472426001</v>
+        <v>-2.144099613541893</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.01616742326427979</v>
+        <v>-0.01513801475894914</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.483612169664942</v>
       </c>
       <c r="E83" t="n">
-        <v>1.173100038044789</v>
+        <v>1.176729726138509</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.089731419073046</v>
+        <v>-2.088652428965394</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01110403203137593</v>
+        <v>0.01230343460180705</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4322576537344404</v>
       </c>
       <c r="E84" t="n">
-        <v>1.309474628733402</v>
+        <v>1.313055522234361</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.008770958559384</v>
+        <v>-2.007825760077043</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03993534027624063</v>
+        <v>0.04107965217742623</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3797172411018208</v>
       </c>
       <c r="E85" t="n">
-        <v>1.319367338910777</v>
+        <v>1.323011193176588</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.854626479000847</v>
+        <v>-1.854083442403998</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05560627464791027</v>
+        <v>0.05675216056821718</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3269336919222802</v>
       </c>
       <c r="E86" t="n">
-        <v>1.363905783967101</v>
+        <v>1.367702318087678</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.7608314665721</v>
+        <v>-1.760500135547066</v>
       </c>
       <c r="G86" t="n">
-        <v>0.07503754070036726</v>
+        <v>0.07611102174109434</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2745971348988696</v>
       </c>
       <c r="E87" t="n">
-        <v>1.374440693945967</v>
+        <v>1.37864332499984</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.571400626352244</v>
+        <v>-1.571271556784297</v>
       </c>
       <c r="G87" t="n">
-        <v>0.06923098416188903</v>
+        <v>0.0703186313747078</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2242049746664932</v>
       </c>
       <c r="E88" t="n">
-        <v>1.368335073774441</v>
+        <v>1.372909173340941</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.424713062380869</v>
+        <v>-1.424720932476475</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09806229240675372</v>
+        <v>0.09922864057563753</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1776107914513643</v>
       </c>
       <c r="E89" t="n">
-        <v>1.380022165750099</v>
+        <v>1.384679688330028</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.23087339460225</v>
+        <v>-1.230779740464532</v>
       </c>
       <c r="G89" t="n">
-        <v>0.09161353606678481</v>
+        <v>0.09269646122223968</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1363756658360993</v>
       </c>
       <c r="E90" t="n">
-        <v>1.319949725985658</v>
+        <v>1.324498641246217</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.06538653325562</v>
+        <v>-1.065388107274741</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1010513547181037</v>
+        <v>0.102146872026529</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1031136466282564</v>
       </c>
       <c r="E91" t="n">
-        <v>1.258167901455485</v>
+        <v>1.262487009924334</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8746256468782652</v>
+        <v>-0.874567408170777</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06874461225340711</v>
+        <v>0.06981337123677028</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.08015356975806347</v>
       </c>
       <c r="E92" t="n">
-        <v>1.243129722770578</v>
+        <v>1.247400036646667</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7089436071605941</v>
+        <v>-0.7087138003688842</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05137373723073273</v>
+        <v>0.05251962315103963</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.06853520731326322</v>
       </c>
       <c r="E93" t="n">
-        <v>1.222409335057776</v>
+        <v>1.22643252793182</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5337080583861885</v>
+        <v>-0.5335490824549372</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03285382824950883</v>
+        <v>0.03383129412383656</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.06774139982975501</v>
       </c>
       <c r="E94" t="n">
-        <v>1.189779918673213</v>
+        <v>1.193688208151402</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4004641917298427</v>
+        <v>-0.3998660644637484</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0133375651645016</v>
+        <v>0.014475580989202</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.0758191117467336</v>
       </c>
       <c r="E95" t="n">
-        <v>1.156481544162097</v>
+        <v>1.159986884745233</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2647884655310873</v>
+        <v>-0.2642092264944487</v>
       </c>
       <c r="G95" t="n">
-        <v>0.00754045274075117</v>
+        <v>0.008573009284324421</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.08982191205083487</v>
       </c>
       <c r="E96" t="n">
-        <v>1.125248282738127</v>
+        <v>1.128781955665447</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1560914270714257</v>
+        <v>-0.1552745111474707</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02746415849785483</v>
+        <v>-0.02637808530415735</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1051520543225229</v>
       </c>
       <c r="E97" t="n">
-        <v>1.071626173332777</v>
+        <v>1.075029202673029</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.0743164116624911</v>
+        <v>-0.07349792171941474</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05792457653326574</v>
+        <v>-0.05681017099538485</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.115619531456096</v>
       </c>
       <c r="E98" t="n">
-        <v>1.007760347486001</v>
+        <v>1.010733669606138</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.06411834177558394</v>
+        <v>-0.06347771599321456</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08320489764047609</v>
+        <v>-0.08218808128811583</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1177127569033657</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9536298299044704</v>
+        <v>0.9562521457605573</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.001744686055801587</v>
+        <v>-0.001011193145275466</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1198905613006312</v>
+        <v>-0.1187918959539633</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1126559555404139</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9298385308860104</v>
+        <v>0.9319524385659173</v>
       </c>
       <c r="F100" t="n">
-        <v>0.04570412035580765</v>
+        <v>0.04617003001571265</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1216723509459436</v>
+        <v>-0.1206649787083112</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1049940635962384</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8662355662324923</v>
+        <v>0.867982727457136</v>
       </c>
       <c r="F101" t="n">
-        <v>0.07109934485887294</v>
+        <v>0.07161719714978088</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.152800153088786</v>
+        <v>-0.1519596268780114</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.09865373244319886</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8010932108783421</v>
+        <v>0.8023303899076843</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1144147770579466</v>
+        <v>0.1146981004997807</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1447317310729987</v>
+        <v>-0.1439919420859873</v>
       </c>
     </row>
   </sheetData>
